--- a/oromia.xlsx
+++ b/oromia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgreen/Documents/Github/NDVI_Projection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FD5E2E-3547-664A-9B79-DE72438433AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BB283-7FA8-8643-9E4B-423D47BAB286}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="26440" windowHeight="15040" activeTab="4" xr2:uid="{EDA26709-97DB-8949-A1F7-6827D50DEBDC}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="26440" windowHeight="15040" xr2:uid="{EDA26709-97DB-8949-A1F7-6827D50DEBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="arsi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="westarsi" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -406,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1237D1A3-523E-C542-8C50-253659E8EF3B}">
-  <dimension ref="A1:I586"/>
+  <dimension ref="A1:I587"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="A587" sqref="A587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12138,6 +12137,11 @@
       </c>
       <c r="E586">
         <v>42.889200000000002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>43565</v>
       </c>
     </row>
   </sheetData>
@@ -47372,7 +47376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C562DF-5478-0B4B-A7C6-B8C0BC650793}">
   <dimension ref="A1:I586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
